--- a/Crawling/crawling_data/day_genie/day_genie_20220109.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220109.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -211,8 +211,7 @@
     <t>밝게 빛나는 별이 되어 비춰줄게</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>우리가 헤어져야 했던 이유</t>
@@ -302,8 +301,7 @@
     <t>죽을 만큼 아파서 (Feat. JAMIE (제이미))</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>늦은 밤 너의 집 앞 골목길에서</t>
@@ -691,9 +689,6 @@
   </si>
   <si>
     <t>20th Anniversary Edition 'Dark Hole'</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>MAP OF THE SOUL : PERSONA</t>
@@ -2620,7 +2615,7 @@
         <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2654,7 +2649,7 @@
         <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2671,7 +2666,7 @@
         <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2688,7 +2683,7 @@
         <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2705,7 +2700,7 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2739,7 +2734,7 @@
         <v>170</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2756,7 +2751,7 @@
         <v>171</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
